--- a/Data/Wagegrowth.xlsx
+++ b/Data/Wagegrowth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Moon\University\CSC160\FinalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66BDE952-BE60-4820-B70A-A665682A89E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A091E4F-FF0E-4085-9985-C730F39EA8BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{1CFBEF0C-EE3D-49E5-B8CA-47F9DB9859F0}"/>
+    <workbookView xWindow="4830" yWindow="810" windowWidth="14970" windowHeight="12690" xr2:uid="{1CFBEF0C-EE3D-49E5-B8CA-47F9DB9859F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Age</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>% wage growth v.s 22 years old (female)</t>
+  </si>
+  <si>
+    <t>Source: https://www.cnbc.com/2018/11/02/the-age-at-which-youll-earn-the-most-money-in-your-career.html</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC20244-2E9E-436B-979C-C6C880C782E6}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,6 +601,11 @@
         <v>49</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
